--- a/PFOA inhalation Rat/Data/PFOA_female_urine_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_urine_Lupton_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72FBC5A-8236-44E3-A903-FF5FABFE7BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBFBA9-8CBB-4396-B021-34B4B220C691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,8 +532,8 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="H4" s="2">
-        <f>G3+G4</f>
-        <v>0.64500000000000002</v>
+        <f>H3+G4</f>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -556,8 +556,8 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="H5" s="2">
-        <f>G4+G5</f>
-        <v>0.75</v>
+        <f t="shared" ref="H5:H18" si="0">H4+G5</f>
+        <v>1.214</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,8 +580,8 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="H6" s="2">
-        <f>G5+G6</f>
-        <v>0.75800000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.581</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,8 +604,8 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="H7" s="2">
-        <f>G6+G7</f>
-        <v>0.78200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1.996</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -628,8 +628,8 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" ref="H4:H18" si="0">G7+G8</f>
-        <v>0.7629999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.3439999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>2.726</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0.78500000000000003</v>
+        <v>3.129</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,7 +701,7 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>0.82200000000000006</v>
+        <v>3.548</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>0.79499999999999993</v>
+        <v>3.9239999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>0.83699999999999997</v>
+        <v>4.3849999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -773,7 +773,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>0.78400000000000003</v>
+        <v>4.7080000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -797,7 +797,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>0.70399999999999996</v>
+        <v>5.0890000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>0.82699999999999996</v>
+        <v>5.5350000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -844,8 +844,8 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H17" s="2">
-        <f>G16+G17</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>5.5890000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -868,8 +868,8 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>G17+G18</f>
-        <v>5.3999999999999999E-2</v>
+        <f>H17+G18</f>
+        <v>5.5890000000000004</v>
       </c>
     </row>
   </sheetData>
